--- a/comment.xlsx
+++ b/comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F26A6B-00B5-4CD2-A357-81520DD03AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4569987-118B-448B-96F0-5467D5A038AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C99B29C7-3A4C-4F85-8138-E5477A2FBA29}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="156">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="2">
@@ -1267,6 +1267,15 @@
   <si>
     <t>#749</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IS10張り</t>
+  </si>
+  <si>
+    <t>No2005A：木部パーツが全体的にロクロ</t>
+  </si>
+  <si>
+    <t>IS20A張り</t>
   </si>
 </sst>
 </file>
@@ -1738,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F89E10-74DD-4645-9643-023642A8D72D}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2214,48 +2223,40 @@
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>77</v>
@@ -2263,261 +2264,265 @@
       <c r="C30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="A35" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="10" t="s">
-        <v>151</v>
+    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" t="s">
-        <v>26</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="10" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>100</v>
+        <v>27</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" t="s">
-        <v>28</v>
+        <v>145</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -2526,105 +2531,145 @@
     </row>
     <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I45" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>38</v>
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>28</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="C49" s="3"/>
+    <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H48">
-    <sortCondition ref="A10:A48"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
+    <sortCondition ref="A10:A50"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/comment.xlsx
+++ b/comment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hskw1\git_space\repair_chair_gemini\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4569987-118B-448B-96F0-5467D5A038AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEEAEBC6-C710-48B1-8D6B-8D3D6E01E946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C99B29C7-3A4C-4F85-8138-E5477A2FBA29}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="159">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="2">
@@ -1134,21 +1134,6 @@
     <t>・背の笠木部分幅が広い。幅が狭いものはNo781ララミー（No●●●●●参照）</t>
   </si>
   <si>
-    <t>#726_A</t>
-  </si>
-  <si>
-    <t>#749_A</t>
-  </si>
-  <si>
-    <t>TU25_A</t>
-  </si>
-  <si>
-    <t>#2001_A</t>
-  </si>
-  <si>
-    <t>#2001_O</t>
-  </si>
-  <si>
     <t>IS22H：板座有り</t>
     <rPh sb="6" eb="8">
       <t>イタザ</t>
@@ -1249,15 +1234,6 @@
     <t>SC278T</t>
   </si>
   <si>
-    <t>TU10_A</t>
-  </si>
-  <si>
-    <t>TU10_O</t>
-  </si>
-  <si>
-    <t>TU10_W</t>
-  </si>
-  <si>
     <t>TU20</t>
   </si>
   <si>
@@ -1276,6 +1252,45 @@
   </si>
   <si>
     <t>IS20A張り</t>
+  </si>
+  <si>
+    <t>#736張り</t>
+  </si>
+  <si>
+    <t>C73</t>
+  </si>
+  <si>
+    <t>#726A</t>
+  </si>
+  <si>
+    <t>#749A</t>
+  </si>
+  <si>
+    <t>#756A</t>
+  </si>
+  <si>
+    <t>#2001A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#2001O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TU10A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TU10O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TU10W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TU25A</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1747,10 +1762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F89E10-74DD-4645-9643-023642A8D72D}">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1793,7 +1808,7 @@
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>105</v>
@@ -1815,7 +1830,7 @@
     </row>
     <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
@@ -1831,7 +1846,7 @@
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
@@ -1847,7 +1862,7 @@
     </row>
     <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -1861,7 +1876,7 @@
     </row>
     <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>45</v>
@@ -1879,7 +1894,7 @@
     </row>
     <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>45</v>
@@ -1895,24 +1910,23 @@
     </row>
     <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
@@ -1923,753 +1937,783 @@
       <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>115</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="10" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+        <v>117</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
     <row r="18" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+        <v>119</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+        <v>149</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+        <v>121</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="8"/>
+        <v>125</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>75</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>81</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="9"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>78</v>
       </c>
       <c r="D33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="G33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>80</v>
       </c>
       <c r="E35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="10" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10" t="s">
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" t="s">
-        <v>26</v>
-      </c>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" t="s">
+        <v>26</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>26</v>
+      </c>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" t="s">
-        <v>34</v>
-      </c>
-      <c r="D47" t="s">
-        <v>35</v>
+        <v>140</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>39</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>103</v>
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>28</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>42</v>
+        <v>156</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
+        <v>37</v>
+      </c>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.3">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+    </row>
+    <row r="51" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="1:11" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="1:11" ht="18" x14ac:dyDescent="0.3">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H50">
-    <sortCondition ref="A10:A50"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H53">
+    <sortCondition ref="A11:A53"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
